--- a/docs/PPG/Apresentação.xlsx
+++ b/docs/PPG/Apresentação.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792B72DD-5250-5D46-B5DC-959D4E1B35CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E28229-A8C8-6847-9446-036E42C08B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="1000" windowWidth="27160" windowHeight="16400" xr2:uid="{D63A89C5-1CF9-944C-B99E-829D01D159A4}"/>
+    <workbookView xWindow="1260" yWindow="1000" windowWidth="27160" windowHeight="16400" activeTab="3" xr2:uid="{D63A89C5-1CF9-944C-B99E-829D01D159A4}"/>
   </bookViews>
   <sheets>
     <sheet name="2017-2020 Quadrienal" sheetId="4" r:id="rId1"/>
@@ -106,46 +106,46 @@
     <t>2020</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1lIXxoHX7iRBNe6JQLhoFocffFxWQn-Zv/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1lEPqmj5vykgNs8anPNJ2vWkaagmxM8TU/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1lRfJJObZKXDOTEg9ZbAjO5xm_ypJ4ajs/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1lE_u-FT3LEypDs77W80mmYFB5oOlnxT5/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1bZR8Ec-KAUtk2n71ye0-ZSV1XakRFDVB/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1bZ49cxFZLhT17lNUcZHOmnDk1-d6FO6G/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1biz1IL8Gd_AZxgrrAE3k7cEhUgk-QNKU/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1bfu0ACnm5ua-YThccZQV-Zr5w0Qd6P7W/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/19SmbrCpX6JhULkv69V9o1LEkbGTgFP-r/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/19NSqZkgQSKYAN-tvVF-cjhh3B1goETOH/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/19LuQu-cXmhExSB0q9K-RdBbJKl4Tv7Gj/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/19CKG_qGZYU5-jeADJ4uSwIomO_ia4Cqc/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/19K9Cqc44FUK_gDi11W2Un4VFIRh9Pr1a/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/13WnDGV8SNLWL9tUnYHVnomGDtTqNHVKe/view?usp=sharing</t>
+    <t>https://drive.google.com/file/d/13WnDGV8SNLWL9tUnYHVnomGDtTqNHVKe</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/19K9Cqc44FUK_gDi11W2Un4VFIRh9Pr1a</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/19LuQu-cXmhExSB0q9K-RdBbJKl4Tv7Gj</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/19CKG_qGZYU5-jeADJ4uSwIomO_ia4Cqc</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/19SmbrCpX6JhULkv69V9o1LEkbGTgFP-r</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/19NSqZkgQSKYAN-tvVF-cjhh3B1goETOH</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1bfu0ACnm5ua-YThccZQV-Zr5w0Qd6P7W</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1bZR8Ec-KAUtk2n71ye0-ZSV1XakRFDVB</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1bZ49cxFZLhT17lNUcZHOmnDk1-d6FO6G</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1biz1IL8Gd_AZxgrrAE3k7cEhUgk-QNKU</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1lE_u-FT3LEypDs77W80mmYFB5oOlnxT5</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1lEPqmj5vykgNs8anPNJ2vWkaagmxM8TU</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1lRfJJObZKXDOTEg9ZbAjO5xm_ypJ4ajs</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1lIXxoHX7iRBNe6JQLhoFocffFxWQn-Zv</t>
   </si>
 </sst>
 </file>
@@ -521,7 +521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A1259D8-EF02-AF4B-A411-9C0B69E884EF}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -549,7 +549,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -560,7 +560,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -604,7 +604,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -615,7 +615,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -626,7 +626,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -637,7 +637,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -648,7 +648,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -707,7 +707,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -718,7 +718,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -729,7 +729,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -740,7 +740,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -767,7 +767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA398BFA-309A-F14C-BACC-4A6A2A919DD5}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -795,7 +795,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -806,7 +806,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -817,7 +817,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">

--- a/docs/PPG/Apresentação.xlsx
+++ b/docs/PPG/Apresentação.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E28229-A8C8-6847-9446-036E42C08B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF09B2AE-35A1-2241-87F4-8854CADBE840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="1000" windowWidth="27160" windowHeight="16400" activeTab="3" xr2:uid="{D63A89C5-1CF9-944C-B99E-829D01D159A4}"/>
+    <workbookView xWindow="1260" yWindow="1000" windowWidth="27160" windowHeight="16400" xr2:uid="{D63A89C5-1CF9-944C-B99E-829D01D159A4}"/>
   </bookViews>
   <sheets>
-    <sheet name="2017-2020 Quadrienal" sheetId="4" r:id="rId1"/>
-    <sheet name="2013-2016 Quadrienal" sheetId="3" r:id="rId2"/>
-    <sheet name="2010-2012 Trienal" sheetId="2" r:id="rId3"/>
-    <sheet name="2006-2010 APCN" sheetId="1" r:id="rId4"/>
+    <sheet name="Sucupira" sheetId="5" r:id="rId1"/>
+    <sheet name="2017-2020 Quadrienal" sheetId="4" r:id="rId2"/>
+    <sheet name="2013-2016 Quadrienal" sheetId="3" r:id="rId3"/>
+    <sheet name="2010-2012 Trienal" sheetId="2" r:id="rId4"/>
+    <sheet name="2006-2010 APCN" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>Resolução No. 2/2007 CEPE-UNISUAM.pdf</t>
   </si>
@@ -146,6 +147,12 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1lIXxoHX7iRBNe6JQLhoFocffFxWQn-Zv</t>
+  </si>
+  <si>
+    <t>https://sucupira.capes.gov.br/sucupira/public/consultas/coleta/programa/viewPrograma.jsf?popup=true&amp;cd_programa=31063012002P4</t>
+  </si>
+  <si>
+    <t>Link</t>
   </si>
 </sst>
 </file>
@@ -223,7 +230,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -511,13 +518,42 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F7B7759-CC93-FD48-BE5A-1AA908F84475}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="116.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{5F0A7B7A-925D-8745-9C7D-E88CAE72A591}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A1259D8-EF02-AF4B-A411-9C0B69E884EF}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -572,7 +608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{748E8628-0048-8045-BAD1-B3C2066EA98E}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -675,7 +711,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B700028B-27C3-C54A-A634-6807A449C1F8}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -763,11 +799,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA398BFA-309A-F14C-BACC-4A6A2A919DD5}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/docs/PPG/Apresentação.xlsx
+++ b/docs/PPG/Apresentação.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF09B2AE-35A1-2241-87F4-8854CADBE840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAF5D2F-01FC-2F4A-A35D-E99B7036145C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1260" yWindow="1000" windowWidth="27160" windowHeight="16400" xr2:uid="{D63A89C5-1CF9-944C-B99E-829D01D159A4}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
   <si>
     <t>Resolução No. 2/2007 CEPE-UNISUAM.pdf</t>
   </si>
@@ -71,15 +71,6 @@
     <t>Publicação</t>
   </si>
   <si>
-    <t>Relatório de Área da Avaliação Trienal 2010-2012.pdf</t>
-  </si>
-  <si>
-    <t>Ficha de Avaliação do Programa.pdf</t>
-  </si>
-  <si>
-    <t>Educação Física Documento Área e Comissão.pdf</t>
-  </si>
-  <si>
     <t>Portaria No. 6 Reitoria 18/01/2016.pdf</t>
   </si>
   <si>
@@ -92,9 +83,6 @@
     <t>Portaria No. 919 DOU 18/08/2016, Seção 1, Página 13.pdf</t>
   </si>
   <si>
-    <t>Relatório de Área da Avaliação Quadrienal 2013-2016.pdf</t>
-  </si>
-  <si>
     <t>Portaria No. 609 DOU 14/03/ 2019, Seção 1, página 63.pdf</t>
   </si>
   <si>
@@ -107,9 +95,6 @@
     <t>2020</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/13WnDGV8SNLWL9tUnYHVnomGDtTqNHVKe</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/19K9Cqc44FUK_gDi11W2Un4VFIRh9Pr1a</t>
   </si>
   <si>
@@ -153,6 +138,42 @@
   </si>
   <si>
     <t>Link</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>Documento da Área 21.pdf</t>
+  </si>
+  <si>
+    <t>Ficha de Recomendação do Programa.pdf</t>
+  </si>
+  <si>
+    <t>Relatório da Área Avaliação Trienal 2010-2012.pdf</t>
+  </si>
+  <si>
+    <t>Relatório da Área Avaliação Quadrienal 2013-2016.pdf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/111S1TYs9-IGdXCY3V9gIsYfAM40ecQuj</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/111VpSoRsgMDjuY1kX4rC2YzCHsTP4qx9</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1exrlnv2v29qd9ddA74AgNh7sZv3UOnf9</t>
+  </si>
+  <si>
+    <t>Relatório da Área Avaliação Quadrienal 2017-2020.pdf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/10zW7CKI2UT4Yj1HpkMxg8HzGJEeShFHD</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/19B2Jki-Bw02OgtkIdfoBX-_EZRK76lxz</t>
   </si>
 </sst>
 </file>
@@ -537,12 +558,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -555,7 +576,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A1259D8-EF02-AF4B-A411-9C0B69E884EF}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -579,30 +600,54 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{C9D89E7C-BDA3-4C4F-A23F-32E9D2772B1D}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{649BCE0F-3963-AE46-86BB-E80F28492CD7}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{A9C2C861-431A-F742-A402-B47747AC4BA9}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{48902988-885F-C043-81AA-1CE0FC4DA1AB}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{A8B94B1E-DEEA-8B4E-B9D4-DE3A3E490E09}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{2FCE04B0-180C-9C47-8D48-001C00657DE4}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -610,7 +655,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{748E8628-0048-8045-BAD1-B3C2066EA98E}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -634,13 +679,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -648,10 +693,10 @@
         <v>2017</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -659,53 +704,53 @@
         <v>2017</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>2016</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C10" s="1"/>
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{18D41BF6-DA2A-F843-A95E-5CBD74EDA9CE}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{4AA6EC31-7E10-0A44-8C8D-A0EEE1B6D028}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{E73CC831-502A-0C45-A274-773F14AD76B6}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{52A055A9-20DB-C649-A1B7-C99A3F275424}"/>
-    <hyperlink ref="C2" r:id="rId5" xr:uid="{9723A044-4805-4A4D-B28A-89010C475209}"/>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{18D41BF6-DA2A-F843-A95E-5CBD74EDA9CE}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{4AA6EC31-7E10-0A44-8C8D-A0EEE1B6D028}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{9723A044-4805-4A4D-B28A-89010C475209}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{74E8F5F0-EA00-FE4E-8631-83F27B97FC2C}"/>
+    <hyperlink ref="C3" r:id="rId5" xr:uid="{07CC6071-E50D-9C4D-AD91-B69A966B8972}"/>
+    <hyperlink ref="C2" r:id="rId6" xr:uid="{7B3CB2DD-D779-5B41-B094-4718A96FCD06}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -737,13 +782,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -751,10 +796,10 @@
         <v>2013</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -762,21 +807,21 @@
         <v>2013</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -790,10 +835,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{A116AE8D-946F-A44F-99B8-B1C4DDAC2ED4}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{F5359398-28F3-244E-8603-957AC733A509}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{4956F3E7-E505-8442-B0B3-59FD45BEB2CF}"/>
-    <hyperlink ref="C2" r:id="rId4" xr:uid="{32648801-9F7D-424F-A4F4-8E22AE35A5BD}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{F4FCD9A4-4EBB-4641-AB4C-CCCCE81B2352}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{AAC64A69-9DBB-1744-986C-00DAD0FBED08}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{B47C86D8-E0B3-5141-9DD4-D88E4D23DDFD}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{F124FF6E-274D-D84D-AD54-CC56BFEFE1F2}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -831,7 +876,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -842,7 +887,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -853,7 +898,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -864,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
